--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>KF Gostivar</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.95</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.55</v>
+        <v>3.15</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.41</v>
+        <v>4.24</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.27</v>
+        <v>3.62</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-vardar/0vLmZW4p/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.74</v>
+        <v>4.42</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.95</v>
+        <v>3.91</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.24</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.62</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-vardar/0vLmZW4p/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.42</v>
+        <v>1.96</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.91</v>
+        <v>1.89</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.61</v>
+        <v>3.33</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>3.88</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
         </is>
       </c>
     </row>
@@ -1953,30 +1953,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Makedonija GP</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.89</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,15 +1984,15 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.97</v>
+        <v>3.49</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.12</v>
+        <v>4.55</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2000,15 +2000,15 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.33</v>
+        <v>4.41</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.88</v>
+        <v>6.27</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.32</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-rabotnicki/GChaiWQS/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>1.33</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.52</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.03</v>
+        <v>4.05</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>4.14</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.5</v>
+        <v>6.47</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.79</v>
+        <v>5.23</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-rabotnicki/GChaiWQS/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.33</v>
+        <v>3.32</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.05</v>
+        <v>2.89</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.14</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>6.47</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>5.23</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.05</v>
+        <v>2.48</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:19</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:33</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.25</v>
+        <v>2.61</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.62</v>
+        <v>2.93</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:19</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-makedonija-gp/Wr3fl3Al/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-brera-strumica/binI7iB9/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.27</v>
+        <v>3.14</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>2.98</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.94</v>
+        <v>3.18</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.64</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>8.119999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>8.25</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-kf-gostivar/hh4jkqer/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-shkendija-tetovo/CfjM6BQF/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Brera Strumica</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.48</v>
+        <v>1.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:19</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.78</v>
+        <v>4.94</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.01</v>
+        <v>4.64</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:33</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.61</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.93</v>
+        <v>8.25</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:19</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-brera-strumica/binI7iB9/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-kf-gostivar/hh4jkqer/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.14</v>
+        <v>2.05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.98</v>
+        <v>2.12</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 15:52</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.18</v>
+        <v>2.84</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,32 +2912,32 @@
         </is>
       </c>
       <c r="P27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>27/08/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>3.62</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 15:52</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-shkendija-tetovo/CfjM6BQF/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-makedonija-gp/Wr3fl3Al/</t>
         </is>
       </c>
     </row>
@@ -2965,46 +2965,46 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.31</v>
+        <v>1.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.69</v>
+        <v>1.68</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2.97</v>
+        <v>3.54</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,24 +3012,24 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.88</v>
+        <v>3.57</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.52</v>
+        <v>4.38</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-makedonija-gp/0I7bmNPf/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-rabotnicki/KIEApL9D/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.95</v>
+        <v>3.13</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.26</v>
+        <v>2.7</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.2</v>
+        <v>3.43</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-shkupi/MXe7o1f7/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-bregalnica-stip/YL2h94nE/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.67</v>
+        <v>2.05</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.11</v>
+        <v>2.95</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.43</v>
+        <v>3.26</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.52</v>
+        <v>4.2</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-sileks/v962nsu1/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-shkupi/MXe7o1f7/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.88</v>
+        <v>2.31</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.68</v>
+        <v>2.69</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>02/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>02/09/2023 15:49</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>01/09/2023 04:12</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:49</t>
-        </is>
-      </c>
       <c r="R31" t="n">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.38</v>
+        <v>2.52</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-rabotnicki/KIEApL9D/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-makedonija-gp/0I7bmNPf/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Bregalnica Stip</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-bregalnica-stip/YL2h94nE/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-sileks/v962nsu1/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.07</v>
+        <v>4.08</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.39</v>
+        <v>4.08</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.96</v>
+        <v>7.71</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.76</v>
+        <v>7.71</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,30 +4905,30 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>2</v>
       </c>
-      <c r="J49" t="n">
-        <v>4.28</v>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.56</v>
+        <v>2.02</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.65</v>
+        <v>3.44</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.05</v>
+        <v>3.72</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>4.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.02</v>
+        <v>3.56</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.44</v>
+        <v>1.65</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.72</v>
+        <v>2.05</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.08</v>
+        <v>3.07</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.08</v>
+        <v>3.39</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>7.71</v>
+        <v>3.96</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>7.71</v>
+        <v>4.76</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
         </is>
       </c>
     </row>
@@ -5330,6 +5330,374 @@
       <c r="V53" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-struga/tfvHvgsN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-rabotnicki/tGJ0QdN5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-kf-gostivar/CzSqUvOt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkupi/2PKdRx8a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-makedonija-gp/faHlTbwm/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>3.32</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.79</v>
+        <v>2.34</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-rabotnicki/GChaiWQS/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.04</v>
+        <v>1.33</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.11</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23/08/2023 15:56</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.06</v>
+        <v>4.05</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.16</v>
+        <v>4.14</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.74</v>
+        <v>6.47</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>5.23</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.33</v>
+        <v>4.04</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.38</v>
+        <v>4.11</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.05</v>
+        <v>3.06</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.14</v>
+        <v>3.16</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>6.47</v>
+        <v>1.74</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.23</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.32</v>
+        <v>2.63</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-rabotnicki/GChaiWQS/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Shkendija</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
       <c r="J25" t="n">
-        <v>3.14</v>
+        <v>1.27</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.98</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.18</v>
+        <v>4.94</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>4.64</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>8.25</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-shkendija-tetovo/CfjM6BQF/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-kf-gostivar/hh4jkqer/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.27</v>
+        <v>3.14</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>2.98</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.94</v>
+        <v>3.18</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.64</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>8.119999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>8.25</v>
+        <v>1.96</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-kf-gostivar/hh4jkqer/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-shkendija-tetovo/CfjM6BQF/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.54</v>
+        <v>3.11</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.57</v>
+        <v>2.43</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.38</v>
+        <v>3.52</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-rabotnicki/KIEApL9D/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-sileks/v962nsu1/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.13</v>
+        <v>2.95</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.7</v>
+        <v>3.26</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.43</v>
+        <v>4.2</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-bregalnica-stip/YL2h94nE/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-shkupi/MXe7o1f7/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2.95</v>
+        <v>3.13</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.26</v>
+        <v>2.7</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.2</v>
+        <v>3.43</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-shkupi/MXe7o1f7/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-bregalnica-stip/YL2h94nE/</t>
         </is>
       </c>
     </row>
@@ -3241,46 +3241,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.31</v>
+        <v>1.88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.69</v>
+        <v>1.68</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2.97</v>
+        <v>3.54</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,24 +3288,24 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.88</v>
+        <v>3.57</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.52</v>
+        <v>4.38</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-makedonija-gp/0I7bmNPf/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-rabotnicki/KIEApL9D/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Sileks</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>2.69</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.52</v>
+        <v>2.52</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-sileks/v962nsu1/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-makedonija-gp/0I7bmNPf/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1.96</v>
+        <v>4.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,48 +5012,48 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.85</v>
+        <v>3.56</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>30/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>2.97</v>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S50" t="inlineStr">
         <is>
           <t>30/09/2023 01:12</t>
         </is>
       </c>
-      <c r="P50" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>01/10/2023 13:46</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>30/09/2023 01:12</t>
-        </is>
-      </c>
       <c r="T50" t="n">
-        <v>3.98</v>
+        <v>2.05</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-tikves/faeJDJw0/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>4.28</v>
+        <v>1.78</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.56</v>
+        <v>1.67</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.21</v>
+        <v>3.07</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.97</v>
+        <v>3.39</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.65</v>
+        <v>3.96</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.05</v>
+        <v>4.76</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.96</v>
+        <v>3.33</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.76</v>
+        <v>3.98</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-tikves/faeJDJw0/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,190 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-makedonija-gp/faHlTbwm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-sileks/82LhSIhg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:37</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:37</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:37</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkendija-tetovo/ARuIYKFP/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.42</v>
+        <v>1.31</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.91</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>4.13</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.28</v>
+        <v>4.3</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>7.01</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>5.69</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.31</v>
+        <v>1.96</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.13</v>
+        <v>2.97</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.3</v>
+        <v>3.12</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>7.01</v>
+        <v>3.33</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.69</v>
+        <v>3.88</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Makedonija GP</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.89</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,15 +1892,15 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.97</v>
+        <v>3.49</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.12</v>
+        <v>4.55</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,15 +1908,15 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.33</v>
+        <v>4.41</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.88</v>
+        <v>6.27</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>KF Gostivar</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.67</v>
+        <v>4.42</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>3.91</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.55</v>
+        <v>3.28</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.41</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>6.27</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.08</v>
+        <v>3.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.08</v>
+        <v>3.39</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.71</v>
+        <v>3.96</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.71</v>
+        <v>4.76</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>4.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.02</v>
+        <v>3.56</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.44</v>
+        <v>1.65</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.72</v>
+        <v>2.05</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.28</v>
+        <v>1.96</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.56</v>
+        <v>1.85</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.97</v>
+        <v>3.18</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.65</v>
+        <v>3.33</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.05</v>
+        <v>3.98</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-tikves/faeJDJw0/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.07</v>
+        <v>2.81</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.39</v>
+        <v>2.92</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.76</v>
+        <v>3.72</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.85</v>
+        <v>1.31</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.97</v>
+        <v>4.08</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.18</v>
+        <v>4.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.33</v>
+        <v>7.71</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.98</v>
+        <v>7.71</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-tikves/faeJDJw0/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,558 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkendija-tetovo/ARuIYKFP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:39</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:39</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:39</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>3.13</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.57</v>
+        <v>2.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.41</v>
+        <v>3.04</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.21</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>3.45</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkupi/CEn0ryrb/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Tikves</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.13</v>
+        <v>1.66</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.94</v>
+        <v>3.39</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.04</v>
+        <v>3.36</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.21</v>
+        <v>4.63</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.45</v>
+        <v>4.03</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-voska-sport/KpwLwDdT/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,63 +1409,63 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.66</v>
+        <v>2.29</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.79</v>
+        <v>2.31</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.39</v>
+        <v>2.81</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.36</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.63</v>
+        <v>2.82</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.03</v>
+        <v>2.56</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-voska-sport/KpwLwDdT/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-rabotnicki/j5o4sec4/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.29</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.31</v>
+        <v>5.57</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.81</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.05</v>
+        <v>3.41</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.82</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.56</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-rabotnicki/j5o4sec4/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkupi/CEn0ryrb/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.31</v>
+        <v>4.42</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>3.91</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.13</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.3</v>
+        <v>3.28</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>7.01</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.69</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.97</v>
+        <v>4.13</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.12</v>
+        <v>4.3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.33</v>
+        <v>7.01</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.88</v>
+        <v>5.69</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.89</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,15 +1892,15 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.49</v>
+        <v>2.97</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.55</v>
+        <v>3.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,15 +1908,15 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.41</v>
+        <v>3.33</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>6.27</v>
+        <v>3.88</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Shkendija</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
       <c r="J17" t="n">
-        <v>4.42</v>
+        <v>1.67</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.91</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.28</v>
+        <v>4.55</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>4.41</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>6.27</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.32</v>
+        <v>4.04</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>4.11</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 15:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.89</v>
+        <v>3.06</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>3.16</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>1.74</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.33</v>
+        <v>3.32</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>3.1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.05</v>
+        <v>2.89</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.14</v>
+        <v>2.82</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>6.47</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.23</v>
+        <v>2.34</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.04</v>
+        <v>1.33</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.11</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23/08/2023 15:56</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.06</v>
+        <v>4.05</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.16</v>
+        <v>4.14</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>6.47</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>5.23</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.52</v>
+        <v>3.43</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-sileks/v962nsu1/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-bregalnica-stip/YL2h94nE/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-shkupi/MXe7o1f7/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-makedonija-gp/0I7bmNPf/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.13</v>
+        <v>2.95</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.7</v>
+        <v>3.26</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.43</v>
+        <v>4.2</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-bregalnica-stip/YL2h94nE/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-shkupi/MXe7o1f7/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.54</v>
+        <v>3.11</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.57</v>
+        <v>2.43</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.38</v>
+        <v>3.52</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-rabotnicki/KIEApL9D/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-sileks/v962nsu1/</t>
         </is>
       </c>
     </row>
@@ -3333,46 +3333,46 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.31</v>
+        <v>1.88</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.69</v>
+        <v>1.68</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2.97</v>
+        <v>3.54</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.88</v>
+        <v>3.57</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.52</v>
+        <v>4.38</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-makedonija-gp/0I7bmNPf/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-rabotnicki/KIEApL9D/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:48</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>3.96</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:45</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.94</v>
+        <v>2.59</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.06</v>
+        <v>5.53</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:48</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-rabotnicki/tGJ0QdN5/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-makedonija-gp/faHlTbwm/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.69</v>
+        <v>3.76</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.07</v>
+        <v>3.89</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:56</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:56</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.16</v>
+        <v>1.8</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.18</v>
+        <v>1.89</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:45</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-kf-gostivar/CzSqUvOt/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkupi/2PKdRx8a/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>3.76</v>
+        <v>2.23</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.89</v>
+        <v>2.25</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:48</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:45</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.8</v>
+        <v>2.94</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.89</v>
+        <v>3.06</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:48</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkupi/2PKdRx8a/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-rabotnicki/tGJ0QdN5/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.5</v>
+        <v>1.69</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.49</v>
+        <v>2.07</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>2.78</v>
+        <v>3.16</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.96</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.59</v>
+        <v>4.16</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.53</v>
+        <v>3.18</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:45</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-makedonija-gp/faHlTbwm/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-kf-gostivar/CzSqUvOt/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,558 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-bregalnica-stip/dM0xM2mH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:34</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:41</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:41</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:41</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:38</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:38</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Tikves</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.13</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:45</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:12</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.21</v>
+        <v>3.08</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.45</v>
+        <v>3.78</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:45</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-bregalnica-stip/YTz9tFCA/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>3.13</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:45</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.08</v>
+        <v>2.21</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.78</v>
+        <v>3.45</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:45</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-bregalnica-stip/YTz9tFCA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.94</v>
+        <v>1.43</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.02</v>
+        <v>3.7</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.16</v>
+        <v>5.72</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.49</v>
+        <v>6.67</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>3.87</v>
+        <v>2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.13</v>
+        <v>1.94</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.96</v>
+        <v>3.02</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.07</v>
+        <v>3.29</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.81</v>
+        <v>3.16</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.86</v>
+        <v>3.49</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,14 +6101,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>1.68</v>
+        <v>3.87</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.8</v>
+        <v>4.13</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.48</v>
+        <v>3.07</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.8</v>
+        <v>1.86</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>5.12</v>
+        <v>4.29</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.26</v>
+        <v>3.8</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>5.72</v>
+        <v>5.12</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.67</v>
+        <v>5.26</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>3.01</v>
+        <v>2.08</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.86</v>
+        <v>2.18</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.27</v>
+        <v>3.16</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>3.56</v>
+        <v>1.34</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.26</v>
+        <v>1.32</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:57</t>
+          <t>29/10/2023 00:12</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.94</v>
+        <v>4.11</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.96</v>
+        <v>4.53</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.89</v>
+        <v>6.67</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.17</v>
+        <v>8.06</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:57</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.08</v>
+        <v>1.47</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.18</v>
+        <v>1.53</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.85</v>
+        <v>3.61</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.79</v>
+        <v>3.58</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.16</v>
+        <v>5.43</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.48</v>
+        <v>5.76</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.34</v>
+        <v>3.01</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.32</v>
+        <v>2.86</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 00:12</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.11</v>
+        <v>2.67</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.53</v>
+        <v>2.86</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>6.67</v>
+        <v>2.27</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>8.06</v>
+        <v>2.47</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,163 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:34</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45231.54166666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>28/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:44</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>28/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:44</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>28/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:44</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
+      <c r="J72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-vardar/QwlA9Dtc/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.07</v>
+        <v>4.08</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.39</v>
+        <v>4.08</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.96</v>
+        <v>7.71</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.76</v>
+        <v>7.71</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,30 +4905,30 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>2</v>
       </c>
-      <c r="J49" t="n">
-        <v>4.28</v>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.56</v>
+        <v>2.02</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.65</v>
+        <v>3.44</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.05</v>
+        <v>3.72</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>4.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.02</v>
+        <v>3.56</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.44</v>
+        <v>1.65</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.72</v>
+        <v>2.05</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.08</v>
+        <v>3.07</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.08</v>
+        <v>3.39</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>7.71</v>
+        <v>3.96</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>7.71</v>
+        <v>4.76</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:48</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.96</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:45</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.59</v>
+        <v>2.94</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.53</v>
+        <v>3.06</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:48</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-makedonija-gp/faHlTbwm/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-rabotnicki/tGJ0QdN5/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>3.76</v>
+        <v>1.69</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.89</v>
+        <v>2.07</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:56</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:56</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.8</v>
+        <v>4.16</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.89</v>
+        <v>3.18</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:45</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkupi/2PKdRx8a/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-kf-gostivar/CzSqUvOt/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.23</v>
+        <v>3.76</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.25</v>
+        <v>3.89</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:48</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:45</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.94</v>
+        <v>1.8</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.06</v>
+        <v>1.89</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:48</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-rabotnicki/tGJ0QdN5/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkupi/2PKdRx8a/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.07</v>
+        <v>1.49</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:56</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.16</v>
+        <v>2.78</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.27</v>
+        <v>3.96</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:56</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.16</v>
+        <v>2.59</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.18</v>
+        <v>5.53</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:45</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-kf-gostivar/CzSqUvOt/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-makedonija-gp/faHlTbwm/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Sileks</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.57</v>
+        <v>5.52</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>07/10/2023 01:12</t>
+          <t>07/10/2023 01:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.55</v>
+        <v>4.73</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:37</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>07/10/2023 01:12</t>
+          <t>07/10/2023 01:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:37</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.71</v>
+        <v>1.47</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>07/10/2023 01:12</t>
+          <t>07/10/2023 01:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.63</v>
+        <v>1.65</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:37</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-sileks/82LhSIhg/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkendija-tetovo/ARuIYKFP/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Shkendija</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>5.52</v>
+        <v>1.57</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>07/10/2023 01:13</t>
+          <t>07/10/2023 01:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.73</v>
+        <v>1.55</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 13:37</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>07/10/2023 01:13</t>
+          <t>07/10/2023 01:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>08/10/2023 13:37</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.47</v>
+        <v>4.71</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>07/10/2023 01:13</t>
+          <t>07/10/2023 01:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.65</v>
+        <v>5.63</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>08/10/2023 13:37</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkendija-tetovo/ARuIYKFP/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-sileks/82LhSIhg/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.7</v>
+        <v>3.02</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.87</v>
+        <v>3.29</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.72</v>
+        <v>3.16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.67</v>
+        <v>3.49</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3.87</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.94</v>
+        <v>4.13</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.29</v>
+        <v>3.07</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.16</v>
+        <v>1.81</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.49</v>
+        <v>1.86</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,14 +6101,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>3.87</v>
+        <v>1.68</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4.13</v>
+        <v>1.8</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.96</v>
+        <v>3.13</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.07</v>
+        <v>3.48</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.86</v>
+        <v>3.8</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.29</v>
+        <v>5.12</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.8</v>
+        <v>5.26</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>5.12</v>
+        <v>5.72</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.26</v>
+        <v>6.67</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.08</v>
+        <v>3.01</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.18</v>
+        <v>2.86</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.16</v>
+        <v>2.27</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.48</v>
+        <v>2.47</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>29/10/2023 00:12</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.11</v>
+        <v>3.61</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>6.67</v>
+        <v>5.43</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>8.06</v>
+        <v>5.76</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 00:12</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.61</v>
+        <v>4.11</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.58</v>
+        <v>4.53</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.43</v>
+        <v>6.67</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.76</v>
+        <v>8.06</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.01</v>
+        <v>2.08</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.86</v>
+        <v>2.18</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.27</v>
+        <v>3.16</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,374 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-vardar/QwlA9Dtc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-kf-gostivar/dK90QHv3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-brera-strumica/IZc9Oe9F/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>3.01</v>
+        <v>1.34</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.86</v>
+        <v>1.32</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 00:12</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.67</v>
+        <v>4.11</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.86</v>
+        <v>4.53</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.27</v>
+        <v>6.67</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.47</v>
+        <v>8.06</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.47</v>
+        <v>3.01</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.53</v>
+        <v>2.86</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.61</v>
+        <v>2.67</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.58</v>
+        <v>2.86</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>5.43</v>
+        <v>2.27</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>5.76</v>
+        <v>2.47</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.34</v>
+        <v>2.08</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.32</v>
+        <v>2.18</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>29/10/2023 00:12</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.11</v>
+        <v>2.85</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.53</v>
+        <v>2.79</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>6.67</v>
+        <v>3.16</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>8.06</v>
+        <v>3.48</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.08</v>
+        <v>3.56</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.18</v>
+        <v>3.26</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:57</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.16</v>
+        <v>1.89</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.48</v>
+        <v>2.17</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.56</v>
+        <v>1.47</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.26</v>
+        <v>1.53</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:57</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2.94</v>
+        <v>3.61</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.96</v>
+        <v>3.58</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.89</v>
+        <v>5.43</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.17</v>
+        <v>5.76</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:57</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7164,12 +7164,12 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-kf-gostivar/dK90QHv3/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.77</v>
+        <v>2.89</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.13</v>
+        <v>3.32</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.19</v>
+        <v>2.11</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.61</v>
+        <v>2.77</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.95</v>
+        <v>3.13</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-kf-gostivar/dK90QHv3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,190 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-brera-strumica/IZc9Oe9F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-vardar/jNIA3fXk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-shkendija-tetovo/vqa5Pyf9/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Shkendija</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="n">
-        <v>5.03</v>
+        <v>1.85</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.07</v>
+        <v>1.64</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:08</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.43</v>
+        <v>3.02</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.38</v>
+        <v>3.19</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:11</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>4.15</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.55</v>
+        <v>5.47</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:08</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkendija-tetovo/6a4vRZCN/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-vardar/S85zSFcH/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Makedonija GP</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.24</v>
+        <v>5.03</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.34</v>
+        <v>6.07</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:51</t>
+          <t>06/08/2023 16:08</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.84</v>
+        <v>3.43</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>3.38</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 16:11</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.87</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.82</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:51</t>
+          <t>06/08/2023 16:08</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-makedonija-gp/xreALDzo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkendija-tetovo/6a4vRZCN/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>2.24</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>2.34</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:51</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>2.84</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>10.45</v>
+        <v>2.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6.35</v>
+        <v>2.82</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:51</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-kf-gostivar/0M3rQgST/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-makedonija-gp/xreALDzo/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.02</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.19</v>
+        <v>4.1</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.15</v>
+        <v>10.45</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5.47</v>
+        <v>6.35</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-vardar/S85zSFcH/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-kf-gostivar/0M3rQgST/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Shkupi</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
       <c r="J41" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.03</v>
+        <v>2.31</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.2</v>
+        <v>2.81</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.35</v>
+        <v>2.79</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.02</v>
+        <v>2.79</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.79</v>
+        <v>3.19</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-kf-gostivar/82ZmbvvD/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.32</v>
+        <v>2.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.31</v>
+        <v>2.02</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="N42" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
         <v>2.81</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>23/09/2023 02:13</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>24/09/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>23/09/2023 02:13</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>3.19</v>
+        <v>3.95</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-kf-gostivar/82ZmbvvD/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-bregalnica-stip/bX1AFu9m/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.17</v>
+        <v>1.44</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.02</v>
+        <v>1.63</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2.89</v>
+        <v>3.65</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2.81</v>
+        <v>3.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.93</v>
+        <v>5.46</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.95</v>
+        <v>4.99</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-bregalnica-stip/bX1AFu9m/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-rabotnicki/Kt36GLgs/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.65</v>
+        <v>3.89</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>5.46</v>
+        <v>6.28</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.99</v>
+        <v>5.48</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-rabotnicki/Kt36GLgs/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-makedonija-gp/ngYicbgJ/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.36</v>
+        <v>3.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.58</v>
+        <v>4.03</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:45</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.28</v>
+        <v>2.02</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.48</v>
+        <v>1.79</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-makedonija-gp/ngYicbgJ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>2</v>
       </c>
-      <c r="J48" t="n">
-        <v>1.31</v>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>2.02</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.08</v>
+        <v>2.92</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.71</v>
+        <v>3.44</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.71</v>
+        <v>3.72</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Struga</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.02</v>
+        <v>1.31</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2.92</v>
+        <v>4.08</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.44</v>
+        <v>7.71</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.72</v>
+        <v>7.71</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1.96</v>
+        <v>4.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,48 +5012,48 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.85</v>
+        <v>3.56</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>30/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>2.97</v>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S50" t="inlineStr">
         <is>
           <t>30/09/2023 01:12</t>
         </is>
       </c>
-      <c r="P50" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>01/10/2023 13:46</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>30/09/2023 01:12</t>
-        </is>
-      </c>
       <c r="T50" t="n">
-        <v>3.98</v>
+        <v>2.05</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-tikves/faeJDJw0/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>4.28</v>
+        <v>1.78</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.56</v>
+        <v>1.67</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.21</v>
+        <v>3.07</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.97</v>
+        <v>3.39</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.65</v>
+        <v>3.96</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.05</v>
+        <v>4.76</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.96</v>
+        <v>3.33</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.76</v>
+        <v>3.98</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-tikves/faeJDJw0/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Shkendija</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
       <c r="J58" t="n">
-        <v>5.52</v>
+        <v>1.57</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>07/10/2023 01:13</t>
+          <t>07/10/2023 01:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4.73</v>
+        <v>1.55</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>08/10/2023 13:37</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>07/10/2023 01:13</t>
+          <t>07/10/2023 01:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>08/10/2023 13:37</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.47</v>
+        <v>4.71</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>07/10/2023 01:13</t>
+          <t>07/10/2023 01:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.65</v>
+        <v>5.63</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>08/10/2023 13:37</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkendija-tetovo/ARuIYKFP/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-sileks/82LhSIhg/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Sileks</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.57</v>
+        <v>5.52</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>07/10/2023 01:12</t>
+          <t>07/10/2023 01:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.55</v>
+        <v>4.73</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:37</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>07/10/2023 01:12</t>
+          <t>07/10/2023 01:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:37</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.71</v>
+        <v>1.47</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>07/10/2023 01:12</t>
+          <t>07/10/2023 01:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.63</v>
+        <v>1.65</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:37</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-sileks/82LhSIhg/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkendija-tetovo/ARuIYKFP/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.29</v>
+        <v>3.07</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.16</v>
+        <v>3.42</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Struga</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
       <c r="J61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
         <v>3.87</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S61" t="inlineStr">
         <is>
           <t>21/10/2023 01:12</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:39</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>21/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>22/10/2023 13:39</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>21/10/2023 01:12</t>
-        </is>
-      </c>
       <c r="T61" t="n">
-        <v>1.86</v>
+        <v>6.67</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.29</v>
+        <v>5.12</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.8</v>
+        <v>5.26</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>1.51</v>
+        <v>3.87</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>4.13</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>5.12</v>
+        <v>1.81</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.26</v>
+        <v>1.86</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.7</v>
+        <v>3.02</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.87</v>
+        <v>3.29</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>5.72</v>
+        <v>3.16</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.67</v>
+        <v>3.49</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Tikves</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.07</v>
+        <v>3.48</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.42</v>
+        <v>4.29</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.34</v>
+        <v>3.56</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.32</v>
+        <v>3.26</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/10/2023 00:12</t>
+          <t>29/10/2023 12:57</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4.11</v>
+        <v>2.94</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.53</v>
+        <v>2.96</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>6.67</v>
+        <v>1.89</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>8.06</v>
+        <v>2.17</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:57</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>3.01</v>
+        <v>2.08</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.86</v>
+        <v>2.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.27</v>
+        <v>3.16</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.08</v>
+        <v>1.34</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.18</v>
+        <v>1.32</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 00:12</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.85</v>
+        <v>4.11</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.79</v>
+        <v>4.53</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.16</v>
+        <v>6.67</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.48</v>
+        <v>8.06</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.56</v>
+        <v>1.47</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.26</v>
+        <v>1.53</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:57</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.94</v>
+        <v>3.61</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.96</v>
+        <v>3.58</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.89</v>
+        <v>5.43</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.17</v>
+        <v>5.76</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:57</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.47</v>
+        <v>3.01</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.53</v>
+        <v>2.86</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.61</v>
+        <v>2.67</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.58</v>
+        <v>2.86</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.43</v>
+        <v>2.27</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>5.76</v>
+        <v>2.47</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.19</v>
+        <v>2.51</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.44</v>
+        <v>2.05</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:53</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.84</v>
+        <v>2.77</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.61</v>
+        <v>3.03</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:53</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.95</v>
+        <v>2.58</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:53</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-kf-gostivar/dK90QHv3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-brera-strumica/IZc9Oe9F/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7256,12 +7256,12 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-kf-gostivar/dK90QHv3/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.77</v>
+        <v>2.89</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.13</v>
+        <v>3.32</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.51</v>
+        <v>2.11</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.05</v>
+        <v>2.34</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:53</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="N76" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>2.77</v>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>03/11/2023 01:13</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>04/11/2023 12:53</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>03/11/2023 01:13</t>
-        </is>
-      </c>
       <c r="T76" t="n">
-        <v>3.48</v>
+        <v>3.16</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:53</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-brera-strumica/IZc9Oe9F/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,374 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-shkendija-tetovo/vqa5Pyf9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-tikves/AXYqIgnq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:45</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:45</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:45</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-struga/4jdHMZwS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-bregalnica-stip/OzwlHD1k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-voska-sport/QacDNFOL/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.02</v>
+        <v>5.7</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.19</v>
+        <v>4.1</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.15</v>
+        <v>10.45</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5.47</v>
+        <v>6.35</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-vardar/S85zSFcH/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-kf-gostivar/0M3rQgST/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>3.02</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.1</v>
+        <v>3.19</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>10.45</v>
+        <v>4.15</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>6.35</v>
+        <v>5.47</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-kf-gostivar/0M3rQgST/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-vardar/S85zSFcH/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.17</v>
+        <v>1.36</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.02</v>
+        <v>1.58</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>24/09/2023 14:45</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>24/09/2023 14:50</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>23/09/2023 02:13</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Q42" t="inlineStr">
+      <c r="T42" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>24/09/2023 14:50</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>23/09/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>24/09/2023 14:50</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-bregalnica-stip/bX1AFu9m/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-makedonija-gp/ngYicbgJ/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.36</v>
+        <v>3.35</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.58</v>
+        <v>4.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:45</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>6.28</v>
+        <v>2.02</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.48</v>
+        <v>1.79</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-makedonija-gp/ngYicbgJ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.35</v>
+        <v>2.17</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.03</v>
+        <v>2.02</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.2</v>
+        <v>2.89</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.35</v>
+        <v>2.81</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.02</v>
+        <v>2.93</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.79</v>
+        <v>3.95</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-bregalnica-stip/bX1AFu9m/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.42</v>
+        <v>5.12</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.55</v>
+        <v>5.26</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.43</v>
+        <v>2.01</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.7</v>
+        <v>2.99</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.87</v>
+        <v>3.07</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.72</v>
+        <v>3.42</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>6.67</v>
+        <v>3.55</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,14 +6101,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>5.12</v>
+        <v>5.72</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>5.26</v>
+        <v>6.67</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>3.87</v>
+        <v>1.68</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.13</v>
+        <v>1.8</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.96</v>
+        <v>3.13</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.07</v>
+        <v>3.48</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.86</v>
+        <v>3.8</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.68</v>
+        <v>3.87</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.8</v>
+        <v>4.13</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.48</v>
+        <v>3.07</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.8</v>
+        <v>1.86</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.32</v>
+        <v>3.13</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.77</v>
+        <v>2.89</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.13</v>
+        <v>3.32</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Tikves</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
       <c r="J79" t="n">
-        <v>1.35</v>
+        <v>3.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>11/11/2023 01:42</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.55</v>
+        <v>3.61</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.12</v>
+        <v>2.93</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>11/11/2023 01:42</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.53</v>
+        <v>3.01</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>7.27</v>
+        <v>2.06</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>11/11/2023 01:42</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.64</v>
+        <v>2.02</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-tikves/AXYqIgnq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-struga/4jdHMZwS/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>3.5</v>
+        <v>1.97</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.61</v>
+        <v>2.03</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.01</v>
+        <v>3.09</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.06</v>
+        <v>3.49</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.02</v>
+        <v>3.46</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-struga/4jdHMZwS/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-bregalnica-stip/OzwlHD1k/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,63 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.97</v>
+        <v>1.35</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:42</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:42</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.49</v>
+        <v>7.27</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:42</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.46</v>
+        <v>5.64</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-bregalnica-stip/OzwlHD1k/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-tikves/AXYqIgnq/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,190 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-voska-sport/QacDNFOL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-rabotnicki/IcxhGXGe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:45</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:01</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:45</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-shkupi/dlydFiW1/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>5.03</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>6.07</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:08</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.7</v>
+        <v>3.43</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.1</v>
+        <v>3.38</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:11</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>10.45</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>6.35</v>
+        <v>1.55</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:08</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-kf-gostivar/0M3rQgST/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkendija-tetovo/6a4vRZCN/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Shkendija</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
       <c r="J3" t="n">
-        <v>5.03</v>
+        <v>2.24</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6.07</v>
+        <v>2.34</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:08</t>
+          <t>06/08/2023 16:51</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.43</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.38</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:11</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>2.87</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>2.82</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:08</t>
+          <t>06/08/2023 16:51</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkendija-tetovo/6a4vRZCN/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-makedonija-gp/xreALDzo/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.24</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.34</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:51</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.84</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.87</v>
+        <v>10.45</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.82</v>
+        <v>6.35</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:51</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-makedonija-gp/xreALDzo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-kf-gostivar/0M3rQgST/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Makedonija GP</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.36</v>
+        <v>2.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>24/09/2023 14:45</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.89</v>
+        <v>2.89</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.46</v>
+        <v>2.81</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>6.28</v>
+        <v>2.93</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>5.48</v>
+        <v>3.95</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-makedonija-gp/ngYicbgJ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-bregalnica-stip/bX1AFu9m/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.35</v>
+        <v>1.36</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.03</v>
+        <v>1.58</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.02</v>
+        <v>6.28</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.79</v>
+        <v>5.48</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-makedonija-gp/ngYicbgJ/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.17</v>
+        <v>3.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="L45" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:32</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:32</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>2.02</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>24/09/2023 14:50</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>23/09/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>24/09/2023 14:50</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>2.93</v>
-      </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.95</v>
+        <v>1.79</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-bregalnica-stip/bX1AFu9m/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.51</v>
+        <v>1.92</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.6</v>
+        <v>2.01</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.4</v>
+        <v>2.99</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.12</v>
+        <v>3.42</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.26</v>
+        <v>3.55</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.42</v>
+        <v>5.12</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.55</v>
+        <v>5.26</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>1.68</v>
+        <v>3.87</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.8</v>
+        <v>4.13</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.48</v>
+        <v>3.07</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.8</v>
+        <v>1.86</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.87</v>
+        <v>1.68</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4.13</v>
+        <v>1.8</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.96</v>
+        <v>3.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.07</v>
+        <v>3.48</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.86</v>
+        <v>3.8</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.77</v>
+        <v>2.89</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.13</v>
+        <v>3.32</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.32</v>
+        <v>3.13</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,374 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-shkupi/dlydFiW1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-shkendija-tetovo/44yjyZhL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-brera-strumica/nTQfzg8R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-kf-gostivar/6JInxFwF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-makedonija-gp/CdJrweO8/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.98</v>
+        <v>2.31</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:45</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>2.81</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.08</v>
+        <v>2.82</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.78</v>
+        <v>2.56</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:45</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-bregalnica-stip/YTz9tFCA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-rabotnicki/j5o4sec4/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Tikves</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.13</v>
+        <v>1.66</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.94</v>
+        <v>3.39</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.04</v>
+        <v>3.36</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.21</v>
+        <v>4.63</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.45</v>
+        <v>4.03</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-voska-sport/KpwLwDdT/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.66</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.79</v>
+        <v>5.57</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.63</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.03</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-voska-sport/KpwLwDdT/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkupi/CEn0ryrb/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.31</v>
+        <v>1.98</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:45</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>13/08/2023 16:12</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.82</v>
+        <v>3.08</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.56</v>
+        <v>3.78</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:45</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-rabotnicki/j5o4sec4/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-bregalnica-stip/YTz9tFCA/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.13</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5.57</v>
+        <v>2.05</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.41</v>
+        <v>3.04</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>2.21</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.58</v>
+        <v>3.45</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkupi/CEn0ryrb/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.74</v>
+        <v>4.42</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.95</v>
+        <v>3.91</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.24</v>
+        <v>1.61</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.62</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-vardar/0vLmZW4p/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.42</v>
+        <v>1.31</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.91</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>4.13</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.28</v>
+        <v>4.3</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>7.01</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>5.69</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.31</v>
+        <v>1.96</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.13</v>
+        <v>2.97</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.3</v>
+        <v>3.12</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>7.01</v>
+        <v>3.33</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.69</v>
+        <v>3.88</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Makedonija GP</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.89</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,15 +1892,15 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.97</v>
+        <v>3.49</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.12</v>
+        <v>4.55</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,15 +1908,15 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.33</v>
+        <v>4.41</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.88</v>
+        <v>6.27</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>KF Gostivar</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.95</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.55</v>
+        <v>3.15</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.41</v>
+        <v>4.24</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>6.27</v>
+        <v>3.62</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-vardar/0vLmZW4p/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>4.04</v>
+        <v>3.32</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.11</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:56</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.06</v>
+        <v>2.89</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.16</v>
+        <v>2.82</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.32</v>
+        <v>1.33</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.1</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.89</v>
+        <v>4.05</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.82</v>
+        <v>4.14</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>6.47</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.34</v>
+        <v>5.23</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.33</v>
+        <v>4.04</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.38</v>
+        <v>4.11</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.05</v>
+        <v>3.06</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.14</v>
+        <v>3.16</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>6.47</v>
+        <v>1.74</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.23</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:19</t>
+          <t>27/08/2023 15:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.01</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:33</t>
+          <t>27/08/2023 15:52</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.61</v>
+        <v>3.25</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.93</v>
+        <v>3.62</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:19</t>
+          <t>27/08/2023 15:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-brera-strumica/binI7iB9/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-makedonija-gp/Wr3fl3Al/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.14</v>
+        <v>2.48</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.98</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 15:19</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3.01</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 15:33</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.98</v>
+        <v>2.61</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.96</v>
+        <v>2.93</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 15:19</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-shkendija-tetovo/CfjM6BQF/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-brera-strumica/binI7iB9/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.05</v>
+        <v>3.14</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.12</v>
+        <v>2.98</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.84</v>
+        <v>3.18</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.62</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-makedonija-gp/Wr3fl3Al/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-shkendija-tetovo/CfjM6BQF/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.54</v>
+        <v>2.31</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.02</v>
+        <v>2.69</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.43</v>
+        <v>2.52</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-bregalnica-stip/YL2h94nE/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-makedonija-gp/0I7bmNPf/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.69</v>
+        <v>1.74</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.88</v>
+        <v>3.26</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>02/09/2023 13:12</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-makedonija-gp/0I7bmNPf/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-shkupi/MXe7o1f7/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.05</v>
+        <v>2.67</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2.95</v>
+        <v>3.11</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.26</v>
+        <v>2.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.2</v>
+        <v>3.52</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-shkupi/MXe7o1f7/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-sileks/v962nsu1/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.67</v>
+        <v>1.88</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.11</v>
+        <v>3.54</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.43</v>
+        <v>3.57</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.52</v>
+        <v>4.38</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-sileks/v962nsu1/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-rabotnicki/KIEApL9D/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.88</v>
+        <v>2.54</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.54</v>
+        <v>3.13</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.57</v>
+        <v>2.7</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.38</v>
+        <v>3.43</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-rabotnicki/KIEApL9D/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-bregalnica-stip/YL2h94nE/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.31</v>
+        <v>4.03</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.81</v>
+        <v>3.2</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.79</v>
+        <v>3.35</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.79</v>
+        <v>2.02</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>23/09/2023 02:13</t>
+          <t>24/09/2023 12:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.19</v>
+        <v>1.79</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>24/09/2023 14:58</t>
+          <t>24/09/2023 14:32</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-kf-gostivar/82ZmbvvD/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>2</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Bregalnica Stip</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.17</v>
+        <v>2.32</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.95</v>
+        <v>3.19</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-bregalnica-stip/bX1AFu9m/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-kf-gostivar/82ZmbvvD/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Rabotnicki</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.44</v>
+        <v>2.17</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.65</v>
+        <v>2.89</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.43</v>
+        <v>2.81</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.46</v>
+        <v>2.93</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.99</v>
+        <v>3.95</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-rabotnicki/Kt36GLgs/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-bregalnica-stip/bX1AFu9m/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:45</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>6.28</v>
+        <v>5.46</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.48</v>
+        <v>4.99</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/09/2023 14:50</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-makedonija-gp/ngYicbgJ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-rabotnicki/Kt36GLgs/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.35</v>
+        <v>1.36</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.03</v>
+        <v>1.58</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:45</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.02</v>
+        <v>6.28</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.79</v>
+        <v>5.48</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 14:50</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-makedonija-gp/ngYicbgJ/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Struga</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.02</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.81</v>
+        <v>4.08</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.92</v>
+        <v>4.08</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.44</v>
+        <v>7.71</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.72</v>
+        <v>7.71</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>2</v>
       </c>
-      <c r="J49" t="n">
-        <v>1.31</v>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.31</v>
+        <v>2.02</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.08</v>
+        <v>2.92</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>7.71</v>
+        <v>3.44</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>7.71</v>
+        <v>3.72</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>1.92</v>
+        <v>3.87</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.01</v>
+        <v>4.13</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5952,11 +5952,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.42</v>
+        <v>1.81</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.55</v>
+        <v>1.86</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.47</v>
+        <v>3.29</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.12</v>
+        <v>3.16</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>5.26</v>
+        <v>3.49</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Bregalnica Stip</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.7</v>
+        <v>3.13</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.87</v>
+        <v>3.48</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>5.72</v>
+        <v>4.29</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>6.67</v>
+        <v>3.8</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>22/10/2023 13:56</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>3.87</v>
+        <v>1.51</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.13</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.81</v>
+        <v>5.12</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.86</v>
+        <v>5.26</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-brera-strumica/0z5HQQYo/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.94</v>
+        <v>1.43</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.02</v>
+        <v>3.7</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.16</v>
+        <v>5.72</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.49</v>
+        <v>6.67</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:56</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-bregalnica-stip/nTl1OzhI/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Vardar</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
       <c r="J65" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.48</v>
+        <v>3.07</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.29</v>
+        <v>3.42</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-vardar/8xjcPGxC/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-tikves/tjl5Nf7O/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>3.56</v>
+        <v>2.08</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.26</v>
+        <v>2.18</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:57</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.94</v>
+        <v>2.85</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.89</v>
+        <v>3.16</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.17</v>
+        <v>3.48</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:57</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.08</v>
+        <v>1.34</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.18</v>
+        <v>1.32</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 00:12</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.85</v>
+        <v>4.11</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.79</v>
+        <v>4.53</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.16</v>
+        <v>6.67</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.48</v>
+        <v>8.06</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>29/10/2023 00:12</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.11</v>
+        <v>3.61</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>6.67</v>
+        <v>5.43</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>8.06</v>
+        <v>5.76</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.47</v>
+        <v>3.56</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.53</v>
+        <v>3.26</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:57</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.61</v>
+        <v>2.94</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.58</v>
+        <v>2.96</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.43</v>
+        <v>1.89</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.76</v>
+        <v>2.17</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-struga/jPcUNOI4/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>2.51</v>
+        <v>2.01</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:53</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:53</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.58</v>
+        <v>3.32</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/11/2023 12:53</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-brera-strumica/IZc9Oe9F/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.19</v>
+        <v>2.11</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.61</v>
+        <v>2.77</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.95</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:54</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-kf-gostivar/dK90QHv3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7348,12 +7348,12 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-makedonija-gp/rH5dRcPd/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-kf-gostivar/dK90QHv3/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.11</v>
+        <v>2.51</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:53</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.77</v>
+        <v>3.03</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.13</v>
+        <v>2.58</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.16</v>
+        <v>3.48</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 12:54</t>
+          <t>04/11/2023 12:53</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-sileks/UDHE2End/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-brera-strumica/IZc9Oe9F/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Struga</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
       <c r="J79" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.61</v>
+        <v>1.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.06</v>
+        <v>2.7</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.02</v>
+        <v>4.09</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-struga/4jdHMZwS/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-voska-sport/QacDNFOL/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.97</v>
+        <v>1.35</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.49</v>
+        <v>7.27</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.46</v>
+        <v>5.64</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-bregalnica-stip/OzwlHD1k/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-tikves/AXYqIgnq/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Tikves</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.35</v>
+        <v>3.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>11/11/2023 01:42</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.55</v>
+        <v>3.61</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.12</v>
+        <v>2.93</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>11/11/2023 01:42</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.53</v>
+        <v>3.01</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>7.27</v>
+        <v>2.06</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>11/11/2023 01:42</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>5.64</v>
+        <v>2.02</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-tikves/AXYqIgnq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-struga/4jdHMZwS/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.85</v>
+        <v>3.04</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.7</v>
+        <v>3.49</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.09</v>
+        <v>3.46</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-voska-sport/QacDNFOL/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-bregalnica-stip/OzwlHD1k/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.35</v>
+        <v>2.56</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>26/11/2023 12:51</t>
+          <t>26/11/2023 12:56</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>26/11/2023 12:51</t>
+          <t>26/11/2023 12:57</t>
         </is>
       </c>
       <c r="R86" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
         <v>3.01</v>
       </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>26/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.19</v>
-      </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>26/11/2023 12:51</t>
+          <t>26/11/2023 12:57</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-brera-strumica/nTQfzg8R/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-kf-gostivar/6JInxFwF/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.07</v>
+        <v>1.37</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.56</v>
+        <v>1.4</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>26/11/2023 12:56</t>
+          <t>26/11/2023 12:57</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.96</v>
+        <v>4.04</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.62</v>
+        <v>3.73</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.33</v>
+        <v>6.95</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.01</v>
+        <v>8.06</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-kf-gostivar/6JInxFwF/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-makedonija-gp/CdJrweO8/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.37</v>
+        <v>2.32</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>26/11/2023 12:57</t>
+          <t>26/11/2023 12:51</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.04</v>
+        <v>2.8</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.73</v>
+        <v>2.74</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>26/11/2023 12:57</t>
+          <t>26/11/2023 12:51</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>6.95</v>
+        <v>3.01</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,568 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>8.06</v>
+        <v>3.19</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>26/11/2023 12:57</t>
+          <t>26/11/2023 12:51</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-makedonija-gp/CdJrweO8/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-brera-strumica/nTQfzg8R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45259.54166666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-rabotnicki/hU9wSUF7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45259.54166666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-sileks/pOdPkY7E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45259.54166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>3</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:37</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:37</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:37</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-struga/IBHQUWVl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45259.54166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-bregalnica-stip/vR5ZSA01/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45259.54166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkupi/6XcLjEh8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45259.54166666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-tikves/d2GUTjoe/</t>
         </is>
       </c>
     </row>

--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.29</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.31</v>
+        <v>5.57</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.81</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.82</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.56</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-rabotnicki/j5o4sec4/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkupi/CEn0ryrb/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:45</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.39</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.36</v>
+        <v>2.99</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:12</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.63</v>
+        <v>3.08</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.03</v>
+        <v>3.78</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:45</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-voska-sport/KpwLwDdT/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-bregalnica-stip/YTz9tFCA/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,63 +1317,63 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.13</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5.57</v>
+        <v>2.05</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.41</v>
+        <v>3.04</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>2.21</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>3.45</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkupi/CEn0ryrb/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:45</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.88</v>
+        <v>3.39</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2.99</v>
+        <v>3.36</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.08</v>
+        <v>4.63</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.78</v>
+        <v>4.03</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:45</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-bregalnica-stip/YTz9tFCA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-voska-sport/KpwLwDdT/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Tikves</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.13</v>
+        <v>2.29</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.21</v>
+        <v>2.82</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.45</v>
+        <v>2.56</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-rabotnicki/j5o4sec4/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Shkendija</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
       <c r="J13" t="n">
-        <v>4.42</v>
+        <v>1.67</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.91</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.28</v>
+        <v>4.55</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.61</v>
+        <v>4.41</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>6.27</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.13</v>
+        <v>3.33</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>7.01</v>
+        <v>4.24</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.69</v>
+        <v>3.62</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-vardar/0vLmZW4p/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.97</v>
+        <v>4.13</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.12</v>
+        <v>4.3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.33</v>
+        <v>7.01</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.88</v>
+        <v>5.69</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>KF Gostivar</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.67</v>
+        <v>4.42</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>3.91</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.55</v>
+        <v>3.28</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.41</v>
+        <v>1.61</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>6.27</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N17" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>19/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>20/08/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>3.33</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>20/08/2023 08:55</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:22</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>4.24</v>
-      </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-vardar/0vLmZW4p/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.32</v>
+        <v>1.33</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.89</v>
+        <v>4.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>4.14</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>6.47</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.34</v>
+        <v>5.23</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.33</v>
+        <v>4.04</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>4.11</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.05</v>
+        <v>3.06</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.14</v>
+        <v>3.16</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>6.47</v>
+        <v>1.74</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.23</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.04</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.11</v>
+        <v>3.52</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23/08/2023 15:56</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-rabotnicki/GChaiWQS/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63</v>
+        <v>3.32</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-rabotnicki/GChaiWQS/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.08</v>
+        <v>3.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.08</v>
+        <v>3.39</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.71</v>
+        <v>3.96</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>30/09/2023 01:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.71</v>
+        <v>4.76</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>01/10/2023 11:07</t>
+          <t>01/10/2023 13:41</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>4.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.02</v>
+        <v>3.56</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.44</v>
+        <v>1.65</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.72</v>
+        <v>2.05</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>01/10/2023 13:41</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.28</v>
+        <v>1.96</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.56</v>
+        <v>1.85</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.97</v>
+        <v>3.18</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.65</v>
+        <v>3.33</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.05</v>
+        <v>3.98</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:46</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkendija-tetovo/MBnzAywP/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-tikves/faeJDJw0/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.07</v>
+        <v>2.81</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.39</v>
+        <v>2.92</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.76</v>
+        <v>3.72</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-vardar/G8dFEaOg/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-struga/lMfNCwg6/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.85</v>
+        <v>1.31</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.97</v>
+        <v>4.08</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.18</v>
+        <v>4.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.33</v>
+        <v>7.71</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>30/09/2023 01:12</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.98</v>
+        <v>7.71</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/10/2023 13:46</t>
+          <t>01/10/2023 11:07</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-tikves/faeJDJw0/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-voska-sport/0dbRBc8C/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:48</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>3.96</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:45</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.94</v>
+        <v>2.59</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.06</v>
+        <v>5.53</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>07/10/2023 13:48</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-rabotnicki/tGJ0QdN5/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-makedonija-gp/faHlTbwm/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.69</v>
+        <v>3.76</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.07</v>
+        <v>3.89</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:56</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:56</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.16</v>
+        <v>1.8</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.18</v>
+        <v>1.89</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:45</t>
+          <t>07/10/2023 13:51</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-kf-gostivar/CzSqUvOt/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkupi/2PKdRx8a/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>3.76</v>
+        <v>2.23</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.89</v>
+        <v>2.25</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:48</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:45</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.8</v>
+        <v>2.94</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.89</v>
+        <v>3.06</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:51</t>
+          <t>07/10/2023 13:48</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkupi/2PKdRx8a/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-rabotnicki/tGJ0QdN5/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.5</v>
+        <v>1.69</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.49</v>
+        <v>2.07</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:56</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>2.78</v>
+        <v>3.16</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.96</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.59</v>
+        <v>4.16</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.53</v>
+        <v>3.18</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:45</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-makedonija-gp/faHlTbwm/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-kf-gostivar/CzSqUvOt/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>3.87</v>
+        <v>2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.13</v>
+        <v>1.94</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2.96</v>
+        <v>3.02</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.07</v>
+        <v>3.29</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.81</v>
+        <v>3.16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.86</v>
+        <v>3.49</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>22/10/2023 13:39</t>
+          <t>22/10/2023 13:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3.87</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.94</v>
+        <v>4.13</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.29</v>
+        <v>3.07</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.16</v>
+        <v>1.81</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.49</v>
+        <v>1.86</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>22/10/2023 13:58</t>
+          <t>22/10/2023 13:39</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-voska-sport/Mq6DR6Ju/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-struga/fgh9MEMU/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.08</v>
+        <v>1.34</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.18</v>
+        <v>1.32</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 00:12</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.85</v>
+        <v>4.11</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.79</v>
+        <v>4.53</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.16</v>
+        <v>6.67</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 02:13</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.48</v>
+        <v>8.06</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>29/10/2023 12:41</t>
+          <t>29/10/2023 12:38</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.34</v>
+        <v>3.01</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.32</v>
+        <v>2.86</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>29/10/2023 00:12</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.11</v>
+        <v>2.67</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.53</v>
+        <v>2.86</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>6.67</v>
+        <v>2.27</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>8.06</v>
+        <v>2.47</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>29/10/2023 12:38</t>
+          <t>29/10/2023 12:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-voska-sport/808PO43b/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.47</v>
+        <v>2.08</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.61</v>
+        <v>2.85</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.58</v>
+        <v>2.79</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.43</v>
+        <v>3.16</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>28/10/2023 02:13</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.76</v>
+        <v>3.48</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>29/10/2023 12:44</t>
+          <t>29/10/2023 12:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-tikves/2a1YMrYA/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.01</v>
+        <v>1.47</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.86</v>
+        <v>1.53</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2.67</v>
+        <v>3.61</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.86</v>
+        <v>3.58</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.27</v>
+        <v>5.43</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.47</v>
+        <v>5.76</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>29/10/2023 12:56</t>
+          <t>29/10/2023 12:44</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-brera-strumica/U99LPplh/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-rabotnicki/YoO54zIq/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3.5</v>
+        <v>1.97</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.61</v>
+        <v>2.03</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.01</v>
+        <v>3.09</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.06</v>
+        <v>3.49</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.02</v>
+        <v>3.46</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/11/2023 12:45</t>
+          <t>11/11/2023 12:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-struga/4jdHMZwS/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-bregalnica-stip/OzwlHD1k/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>1</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Bregalnica Stip</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
       <c r="J82" t="n">
-        <v>1.97</v>
+        <v>3.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.03</v>
+        <v>3.61</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.09</v>
+        <v>3.01</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.49</v>
+        <v>2.06</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.46</v>
+        <v>2.02</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/11/2023 12:59</t>
+          <t>11/11/2023 12:45</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-bregalnica-stip/OzwlHD1k/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-struga/4jdHMZwS/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>29/11/2023 12:51</t>
+          <t>29/11/2023 12:54</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.6</v>
+        <v>2.89</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.45</v>
+        <v>3.02</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>29/11/2023 12:51</t>
+          <t>29/11/2023 12:56</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.98</v>
+        <v>3.34</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>29/11/2023 12:51</t>
+          <t>29/11/2023 12:54</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-rabotnicki/hU9wSUF7/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-tikves/d2GUTjoe/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>2.16</v>
+        <v>4.57</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.6</v>
+        <v>6.04</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>29/11/2023 12:59</t>
+          <t>29/11/2023 12:37</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>29/11/2023 12:59</t>
+          <t>29/11/2023 12:37</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.37</v>
+        <v>1.72</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.23</v>
+        <v>1.52</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>29/11/2023 12:59</t>
+          <t>29/11/2023 12:37</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-sileks/pOdPkY7E/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-struga/IBHQUWVl/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>4.57</v>
+        <v>1.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>6.04</v>
+        <v>1.57</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>29/11/2023 12:37</t>
+          <t>29/11/2023 12:51</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.18</v>
+        <v>3.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.56</v>
+        <v>3.45</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>29/11/2023 12:37</t>
+          <t>29/11/2023 12:51</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.72</v>
+        <v>5.98</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.52</v>
+        <v>5.6</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>29/11/2023 12:37</t>
+          <t>29/11/2023 12:51</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-struga/IBHQUWVl/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-rabotnicki/hU9wSUF7/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.76</v>
+        <v>3.36</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.65</v>
+        <v>4.13</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.11</v>
+        <v>2.78</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>29/11/2023 12:58</t>
+          <t>29/11/2023 12:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.29</v>
+        <v>2.16</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>4.55</v>
+        <v>1.96</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>29/11/2023 12:51</t>
+          <t>29/11/2023 12:55</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-bregalnica-stip/vR5ZSA01/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkupi/6XcLjEh8/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.36</v>
+        <v>1.76</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>4.13</v>
+        <v>1.65</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.78</v>
+        <v>3.11</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>29/11/2023 12:56</t>
+          <t>29/11/2023 12:58</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.16</v>
+        <v>4.29</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.96</v>
+        <v>4.55</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>29/11/2023 12:55</t>
+          <t>29/11/2023 12:51</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-shkupi/6XcLjEh8/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-bregalnica-stip/vR5ZSA01/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,1267 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-sileks/pOdPkY7E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
           <t>Voska Sport</t>
         </is>
       </c>
-      <c r="G94" t="n">
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-voska-sport/z93drj0l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="J96" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:49</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-brera-strumica/M5ahqWpr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:47</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:47</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-shkendija-tetovo/4QCQmCxR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-kf-gostivar/QZDMlhNK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>Tikves</t>
         </is>
       </c>
-      <c r="I94" t="n">
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>3</v>
       </c>
-      <c r="J94" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>29/11/2023 01:13</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>29/11/2023 12:54</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>29/11/2023 01:13</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>29/11/2023 12:56</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>29/11/2023 01:13</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>29/11/2023 12:54</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-tikves/d2GUTjoe/</t>
+      <c r="J99" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-struga/IXh1sAFf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45266.54166666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-vardar/Y5Kvvy92/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45266.54166666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:23</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-voska-sport/lxDMVCGr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Makedonija GP</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-makedonija-gp/Cjx41V6Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:49</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:49</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:49</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-bregalnica-stip/Qcd9ulp7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Tikves</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-tikves/dOi5tUU0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Brera Strumica</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-shkupi/6gZe3ixE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-sileks/ITx02BiK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>3</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:35</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:35</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:35</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-rabotnicki/4leDv8aD/</t>
         </is>
       </c>
     </row>
